--- a/TuVung/Lesson22/tuvung.xlsx
+++ b/TuVung/Lesson22/tuvung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\TuVung\Lesson22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BB7EB0-9E0B-40A4-A648-8701456F3E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797A9753-8459-43CC-95FF-2D2838A32550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1290" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>japanese</t>
   </si>
@@ -42,9 +42,6 @@
     <t>第二十二課</t>
   </si>
   <si>
-    <t>おく</t>
-  </si>
-  <si>
     <t>しまる</t>
   </si>
   <si>
@@ -298,6 +295,36 @@
   </si>
   <si>
     <t>社長に あいさつします</t>
+  </si>
+  <si>
+    <t>あく</t>
+  </si>
+  <si>
+    <t>いる</t>
+  </si>
+  <si>
+    <t>cần</t>
+  </si>
+  <si>
+    <t>パスポートが 要ります</t>
+  </si>
+  <si>
+    <t>こわい</t>
+  </si>
+  <si>
+    <t>怖い</t>
+  </si>
+  <si>
+    <t>sợ</t>
+  </si>
+  <si>
+    <t>変える</t>
+  </si>
+  <si>
+    <t>かえる</t>
+  </si>
+  <si>
+    <t>đổi</t>
   </si>
 </sst>
 </file>
@@ -690,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G31" sqref="F31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,326 +748,359 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">

--- a/TuVung/Lesson22/tuvung.xlsx
+++ b/TuVung/Lesson22/tuvung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\TuVung\Lesson22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797A9753-8459-43CC-95FF-2D2838A32550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC771E9-B4F3-404F-9105-AC14190094D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1290" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>車に気をつけます</t>
   </si>
   <si>
-    <t>忘れ物に 気をつきます</t>
-  </si>
-  <si>
     <t>忘れ物</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>đổi</t>
+  </si>
+  <si>
+    <t>忘れ物に 気がつきます</t>
   </si>
 </sst>
 </file>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G31" sqref="F31:G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>70</v>
@@ -806,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -817,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
@@ -825,10 +825,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -839,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -850,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -861,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -872,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -883,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
@@ -932,7 +932,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -943,7 +943,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
@@ -954,7 +954,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
         <v>62</v>
@@ -1024,7 +1024,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
         <v>63</v>
@@ -1072,35 +1072,35 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
         <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
         <v>94</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>95</v>
-      </c>
-      <c r="D36" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
         <v>98</v>
-      </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
